--- a/Code/Results/Cases/Case_9_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.87355432272077</v>
+        <v>11.69835649725669</v>
       </c>
       <c r="C2">
-        <v>7.28011587543668</v>
+        <v>7.314974825413373</v>
       </c>
       <c r="D2">
-        <v>7.322947907278388</v>
+        <v>7.430915292828246</v>
       </c>
       <c r="E2">
-        <v>10.16929534732652</v>
+        <v>10.2381117714517</v>
       </c>
       <c r="F2">
-        <v>21.82942609177419</v>
+        <v>21.420881337067</v>
       </c>
       <c r="G2">
-        <v>23.43957984986935</v>
+        <v>22.2151763896384</v>
       </c>
       <c r="H2">
-        <v>2.24337374998329</v>
+        <v>2.200392579871162</v>
       </c>
       <c r="I2">
-        <v>2.915480430690665</v>
+        <v>2.801288769892202</v>
       </c>
       <c r="J2">
-        <v>9.45238339757781</v>
+        <v>9.620125386815308</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.490806062629233</v>
+        <v>12.02207423126008</v>
       </c>
       <c r="M2">
-        <v>10.63064351032785</v>
+        <v>9.151207208161743</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.499614973436578</v>
       </c>
       <c r="O2">
-        <v>11.2366719804897</v>
+        <v>10.65310751164152</v>
       </c>
       <c r="P2">
-        <v>12.9711958347</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.43916877369139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.27351690126326</v>
+      </c>
+      <c r="R2">
+        <v>12.85962915508058</v>
+      </c>
+      <c r="S2">
+        <v>15.09780186111798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.10559824014326</v>
+        <v>10.98330436315795</v>
       </c>
       <c r="C3">
-        <v>7.009810573317266</v>
+        <v>6.93937903377604</v>
       </c>
       <c r="D3">
-        <v>7.018455020863555</v>
+        <v>7.119776820741359</v>
       </c>
       <c r="E3">
-        <v>9.838673720433059</v>
+        <v>9.911801098846395</v>
       </c>
       <c r="F3">
-        <v>21.54852057690627</v>
+        <v>21.17566590289654</v>
       </c>
       <c r="G3">
-        <v>23.17047276630786</v>
+        <v>22.03809423338398</v>
       </c>
       <c r="H3">
-        <v>2.426330821563894</v>
+        <v>2.376071476619891</v>
       </c>
       <c r="I3">
-        <v>3.043691051359157</v>
+        <v>2.914808963976606</v>
       </c>
       <c r="J3">
-        <v>9.475875942805514</v>
+        <v>9.62175835292021</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.399050212649334</v>
+        <v>12.16717216630595</v>
       </c>
       <c r="M3">
-        <v>10.05143938282334</v>
+        <v>9.169383230301193</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.412975303213865</v>
       </c>
       <c r="O3">
-        <v>10.74056906289228</v>
+        <v>10.07580157850692</v>
       </c>
       <c r="P3">
-        <v>13.09739388809684</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.41280201050376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.7742608277682</v>
+      </c>
+      <c r="R3">
+        <v>12.9760930014731</v>
+      </c>
+      <c r="S3">
+        <v>15.09332078542155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.60314720127142</v>
+        <v>10.51558880001931</v>
       </c>
       <c r="C4">
-        <v>6.840560283507689</v>
+        <v>6.702754321222989</v>
       </c>
       <c r="D4">
-        <v>6.825997361673958</v>
+        <v>6.923396835575681</v>
       </c>
       <c r="E4">
-        <v>9.629906966307967</v>
+        <v>9.706061173853456</v>
       </c>
       <c r="F4">
-        <v>21.38049151089589</v>
+        <v>21.02875050936204</v>
       </c>
       <c r="G4">
-        <v>23.01264091925171</v>
+        <v>21.93816214804813</v>
       </c>
       <c r="H4">
-        <v>2.543070494965844</v>
+        <v>2.488202713299406</v>
       </c>
       <c r="I4">
-        <v>3.126275096538491</v>
+        <v>2.988263465221561</v>
       </c>
       <c r="J4">
-        <v>9.492655404410771</v>
+        <v>9.623631207180546</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.341325875015334</v>
+        <v>12.25860714987166</v>
       </c>
       <c r="M4">
-        <v>9.677348341627768</v>
+        <v>9.197420575021543</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.358503676583162</v>
       </c>
       <c r="O4">
-        <v>10.42483017802144</v>
+        <v>9.703007464136361</v>
       </c>
       <c r="P4">
-        <v>13.17656481791882</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.40136920301425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.45646038213396</v>
+      </c>
+      <c r="R4">
+        <v>13.04945354814874</v>
+      </c>
+      <c r="S4">
+        <v>15.09442891633821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38507087554191</v>
+        <v>10.31233817050664</v>
       </c>
       <c r="C5">
-        <v>6.778126728812587</v>
+        <v>6.613191759928923</v>
       </c>
       <c r="D5">
-        <v>6.747707592477751</v>
+        <v>6.843551745520935</v>
       </c>
       <c r="E5">
-        <v>9.543787240481331</v>
+        <v>9.621276527134945</v>
       </c>
       <c r="F5">
-        <v>21.30780370120887</v>
+        <v>20.96448011892585</v>
       </c>
       <c r="G5">
-        <v>22.94077466263628</v>
+        <v>21.89020647670446</v>
       </c>
       <c r="H5">
-        <v>2.591955516659015</v>
+        <v>2.535166490625043</v>
       </c>
       <c r="I5">
-        <v>3.16371240106015</v>
+        <v>3.022445762965309</v>
       </c>
       <c r="J5">
-        <v>9.498571378168174</v>
+        <v>9.623085069768726</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.317212428389722</v>
+        <v>12.29241360023072</v>
       </c>
       <c r="M5">
-        <v>9.520479226110714</v>
+        <v>9.210972605577163</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.335748185114144</v>
       </c>
       <c r="O5">
-        <v>10.29395494201769</v>
+        <v>9.54670890063724</v>
       </c>
       <c r="P5">
-        <v>13.20900311494708</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.3940768150493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.32471424693461</v>
+      </c>
+      <c r="R5">
+        <v>13.07962688653327</v>
+      </c>
+      <c r="S5">
+        <v>15.09206125960153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.34162756197781</v>
+        <v>10.27150326999924</v>
       </c>
       <c r="C6">
-        <v>6.776690613475537</v>
+        <v>6.608390500305759</v>
       </c>
       <c r="D6">
-        <v>6.736376889004453</v>
+        <v>6.831958379541628</v>
       </c>
       <c r="E6">
-        <v>9.529800381423167</v>
+        <v>9.607521591535582</v>
       </c>
       <c r="F6">
-        <v>21.28922811892468</v>
+        <v>20.94732690285372</v>
       </c>
       <c r="G6">
-        <v>22.91743051549481</v>
+        <v>21.87087748815128</v>
       </c>
       <c r="H6">
-        <v>2.600377084583296</v>
+        <v>2.543257908504987</v>
       </c>
       <c r="I6">
-        <v>3.173596765115168</v>
+        <v>3.032439389956529</v>
       </c>
       <c r="J6">
-        <v>9.497750114303594</v>
+        <v>9.621141578897758</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.312882568107803</v>
+        <v>12.29312843664878</v>
       </c>
       <c r="M6">
-        <v>9.494334349415485</v>
+        <v>9.210916061313904</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.331651653355213</v>
       </c>
       <c r="O6">
-        <v>10.27261227102651</v>
+        <v>9.520666242386046</v>
       </c>
       <c r="P6">
-        <v>13.21410939373027</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.38828192536356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.30322271116516</v>
+      </c>
+      <c r="R6">
+        <v>13.08443854040543</v>
+      </c>
+      <c r="S6">
+        <v>15.08712058675231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.58220837104757</v>
+        <v>10.49198505911649</v>
       </c>
       <c r="C7">
-        <v>6.863965130323297</v>
+        <v>6.724769143936289</v>
       </c>
       <c r="D7">
-        <v>6.829639845344405</v>
+        <v>6.93014562485319</v>
       </c>
       <c r="E7">
-        <v>9.629820527785139</v>
+        <v>9.707164629824</v>
       </c>
       <c r="F7">
-        <v>21.36164053228119</v>
+        <v>20.99956735920168</v>
       </c>
       <c r="G7">
-        <v>22.98032920158515</v>
+        <v>21.97880276682461</v>
       </c>
       <c r="H7">
-        <v>2.544359200487764</v>
+        <v>2.489893759801788</v>
       </c>
       <c r="I7">
-        <v>3.136315322238477</v>
+        <v>3.00042486853379</v>
       </c>
       <c r="J7">
-        <v>9.487723113232374</v>
+        <v>9.58752135062166</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.34017864425309</v>
+        <v>12.2414018664339</v>
       </c>
       <c r="M7">
-        <v>9.67572715981645</v>
+        <v>9.187635155090087</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.357062333663167</v>
       </c>
       <c r="O7">
-        <v>10.42453705809291</v>
+        <v>9.697949146539504</v>
       </c>
       <c r="P7">
-        <v>13.176216392568</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.38858570114668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.45488406109244</v>
+      </c>
+      <c r="R7">
+        <v>13.04913709062722</v>
+      </c>
+      <c r="S7">
+        <v>15.07439850530931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59313119335501</v>
+        <v>11.42635705218538</v>
       </c>
       <c r="C8">
-        <v>7.218547349757378</v>
+        <v>7.208354667852249</v>
       </c>
       <c r="D8">
-        <v>7.22505428009677</v>
+        <v>7.340667883169647</v>
       </c>
       <c r="E8">
-        <v>10.05793365235089</v>
+        <v>10.13198266307651</v>
       </c>
       <c r="F8">
-        <v>21.70850662766681</v>
+        <v>21.2781937605839</v>
       </c>
       <c r="G8">
-        <v>23.30452078126514</v>
+        <v>22.35146644541546</v>
       </c>
       <c r="H8">
-        <v>2.306339780943819</v>
+        <v>2.262236895024522</v>
       </c>
       <c r="I8">
-        <v>2.971054603367342</v>
+        <v>2.855404326558853</v>
       </c>
       <c r="J8">
-        <v>9.453409610288922</v>
+        <v>9.512886123203478</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.458419724904255</v>
+        <v>12.04226155454852</v>
       </c>
       <c r="M8">
-        <v>10.43540480246246</v>
+        <v>9.132529849471016</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.46797587726171</v>
       </c>
       <c r="O8">
-        <v>11.06982361513177</v>
+        <v>10.4477590672163</v>
       </c>
       <c r="P8">
-        <v>13.01355479106851</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.41244963205908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.10160515272673</v>
+      </c>
+      <c r="R8">
+        <v>12.89872505381625</v>
+      </c>
+      <c r="S8">
+        <v>15.05450207949825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.35990253460976</v>
+        <v>13.07152578536469</v>
       </c>
       <c r="C9">
-        <v>7.844891796597417</v>
+        <v>8.074805614933821</v>
       </c>
       <c r="D9">
-        <v>7.94540849495381</v>
+        <v>8.079878219793981</v>
       </c>
       <c r="E9">
-        <v>10.84661035332697</v>
+        <v>10.91273814783182</v>
       </c>
       <c r="F9">
-        <v>22.45312880782415</v>
+        <v>21.92191974824055</v>
       </c>
       <c r="G9">
-        <v>24.05305359129616</v>
+        <v>22.93938929612574</v>
       </c>
       <c r="H9">
-        <v>1.872937810938549</v>
+        <v>1.846496767009597</v>
       </c>
       <c r="I9">
-        <v>2.661732197486004</v>
+        <v>2.580546105603808</v>
       </c>
       <c r="J9">
-        <v>9.414181433850546</v>
+        <v>9.492512063946675</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.680338960817112</v>
+        <v>11.70733605929688</v>
       </c>
       <c r="M9">
-        <v>11.7754658157197</v>
+        <v>9.184360316130599</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.677601083043664</v>
       </c>
       <c r="O9">
-        <v>12.23919627432026</v>
+        <v>11.7820218840423</v>
       </c>
       <c r="P9">
-        <v>12.70866342347379</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.52047973672166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.27736973868317</v>
+      </c>
+      <c r="R9">
+        <v>12.6194485041518</v>
+      </c>
+      <c r="S9">
+        <v>15.09648321511969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.49183425408185</v>
+        <v>14.11408917968794</v>
       </c>
       <c r="C10">
-        <v>8.285574902271074</v>
+        <v>8.650335744268412</v>
       </c>
       <c r="D10">
-        <v>8.363183303426606</v>
+        <v>8.525692762605143</v>
       </c>
       <c r="E10">
-        <v>11.21699653381733</v>
+        <v>11.28469646277312</v>
       </c>
       <c r="F10">
-        <v>22.88466322314829</v>
+        <v>22.22617175224722</v>
       </c>
       <c r="G10">
-        <v>24.48989547146896</v>
+        <v>23.68360411723542</v>
       </c>
       <c r="H10">
-        <v>1.609234559451121</v>
+        <v>1.597045606781648</v>
       </c>
       <c r="I10">
-        <v>2.508561670350803</v>
+        <v>2.571181450850111</v>
       </c>
       <c r="J10">
-        <v>9.373792142625744</v>
+        <v>9.293504714484847</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.768355384463246</v>
+        <v>11.4262537886357</v>
       </c>
       <c r="M10">
-        <v>12.65587717137348</v>
+        <v>9.247540618425566</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.756264922925956</v>
       </c>
       <c r="O10">
-        <v>12.92906423264394</v>
+        <v>12.64251932166231</v>
       </c>
       <c r="P10">
-        <v>12.49284993395862</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.56395728802705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.96471980637452</v>
+      </c>
+      <c r="R10">
+        <v>12.42645263570981</v>
+      </c>
+      <c r="S10">
+        <v>15.05002747537685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.85596907075941</v>
+        <v>14.44969022805204</v>
       </c>
       <c r="C11">
-        <v>8.419080439539801</v>
+        <v>8.751598481598883</v>
       </c>
       <c r="D11">
-        <v>7.861225198837081</v>
+        <v>8.051228623368436</v>
       </c>
       <c r="E11">
-        <v>9.922192779718095</v>
+        <v>9.994783763872221</v>
       </c>
       <c r="F11">
-        <v>21.97961166180822</v>
+        <v>21.22212205556177</v>
       </c>
       <c r="G11">
-        <v>23.50108056802296</v>
+        <v>23.59532867880228</v>
       </c>
       <c r="H11">
-        <v>2.687824658999338</v>
+        <v>2.684844806325054</v>
       </c>
       <c r="I11">
-        <v>2.577581250180263</v>
+        <v>2.632071455959567</v>
       </c>
       <c r="J11">
-        <v>9.163220095505697</v>
+        <v>8.804125466141123</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.293489208268643</v>
+        <v>11.07349155629704</v>
       </c>
       <c r="M11">
-        <v>12.94099663287716</v>
+        <v>8.987561970111017</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.280135330473219</v>
       </c>
       <c r="O11">
-        <v>12.31265328428212</v>
+        <v>12.89132983124128</v>
       </c>
       <c r="P11">
-        <v>12.41252799691335</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.09364527532086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.33416138815683</v>
+      </c>
+      <c r="R11">
+        <v>12.37721728347299</v>
+      </c>
+      <c r="S11">
+        <v>14.51145423852405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.955295722525</v>
+        <v>14.55153325535875</v>
       </c>
       <c r="C12">
-        <v>8.408632786729047</v>
+        <v>8.694939718783875</v>
       </c>
       <c r="D12">
-        <v>7.34104431080292</v>
+        <v>7.53802098915876</v>
       </c>
       <c r="E12">
-        <v>8.839552565939758</v>
+        <v>8.9082368985909</v>
       </c>
       <c r="F12">
-        <v>21.13996513627006</v>
+        <v>20.36474628171351</v>
       </c>
       <c r="G12">
-        <v>22.60344619736561</v>
+        <v>23.13187535712388</v>
       </c>
       <c r="H12">
-        <v>4.106467776358985</v>
+        <v>4.10534759692429</v>
       </c>
       <c r="I12">
-        <v>2.588997128869096</v>
+        <v>2.640560317316933</v>
       </c>
       <c r="J12">
-        <v>8.999170117666898</v>
+        <v>8.565501084694302</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.981747573283033</v>
+        <v>10.87022911322965</v>
       </c>
       <c r="M12">
-        <v>13.0017800834294</v>
+        <v>8.777091972217965</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.970613909652761</v>
       </c>
       <c r="O12">
-        <v>11.63937339752976</v>
+        <v>12.93507829533613</v>
       </c>
       <c r="P12">
-        <v>12.40066815030707</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.70055260029993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.65337988863807</v>
+      </c>
+      <c r="R12">
+        <v>12.38647545247813</v>
+      </c>
+      <c r="S12">
+        <v>14.10890596577251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.83963020058416</v>
+        <v>14.46889275417219</v>
       </c>
       <c r="C13">
-        <v>8.318866858274946</v>
+        <v>8.556160123566556</v>
       </c>
       <c r="D13">
-        <v>6.770555271582065</v>
+        <v>6.953062124670321</v>
       </c>
       <c r="E13">
-        <v>7.881980693059407</v>
+        <v>7.938965051874034</v>
       </c>
       <c r="F13">
-        <v>20.26799132429807</v>
+        <v>19.55817546855058</v>
       </c>
       <c r="G13">
-        <v>21.66740844574406</v>
+        <v>22.11362106570468</v>
       </c>
       <c r="H13">
-        <v>5.547463270711963</v>
+        <v>5.545893116252584</v>
       </c>
       <c r="I13">
-        <v>2.562927724696189</v>
+        <v>2.617694025609299</v>
       </c>
       <c r="J13">
-        <v>8.853411605939842</v>
+        <v>8.504081486269047</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.789039458029148</v>
+        <v>10.74859053699092</v>
       </c>
       <c r="M13">
-        <v>12.89628697514877</v>
+        <v>8.58769213614115</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.783137169367102</v>
       </c>
       <c r="O13">
-        <v>10.86781528630866</v>
+        <v>12.83284512163635</v>
       </c>
       <c r="P13">
-        <v>12.43740926480324</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.32315986305453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.88123809054414</v>
+      </c>
+      <c r="R13">
+        <v>12.43324915021939</v>
+      </c>
+      <c r="S13">
+        <v>13.7821128266405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.65576705789094</v>
+        <v>14.32225987909446</v>
       </c>
       <c r="C14">
-        <v>8.225846250356886</v>
+        <v>8.427097520341828</v>
       </c>
       <c r="D14">
-        <v>6.346018504344982</v>
+        <v>6.509276365832293</v>
       </c>
       <c r="E14">
-        <v>7.316586641313486</v>
+        <v>7.363431167212752</v>
       </c>
       <c r="F14">
-        <v>19.63983007875499</v>
+        <v>19.01008316946198</v>
       </c>
       <c r="G14">
-        <v>20.98702842935839</v>
+        <v>21.15771688265823</v>
       </c>
       <c r="H14">
-        <v>6.563471240946061</v>
+        <v>6.561136953469476</v>
       </c>
       <c r="I14">
-        <v>2.529230180608054</v>
+        <v>2.589339482670586</v>
       </c>
       <c r="J14">
-        <v>8.759165460836519</v>
+        <v>8.525658152776243</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.73048310562217</v>
+        <v>10.69381081239142</v>
       </c>
       <c r="M14">
-        <v>12.74612403850715</v>
+        <v>8.464588245972015</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.729257274071696</v>
       </c>
       <c r="O14">
-        <v>10.27658992603586</v>
+        <v>12.69391099468818</v>
       </c>
       <c r="P14">
-        <v>12.48541354237073</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.06452396614752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.29245547780821</v>
+      </c>
+      <c r="R14">
+        <v>12.48180161246579</v>
+      </c>
+      <c r="S14">
+        <v>13.58297012840578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.55864873554674</v>
+        <v>14.24050234189894</v>
       </c>
       <c r="C15">
-        <v>8.194219662939146</v>
+        <v>8.386035002385068</v>
       </c>
       <c r="D15">
-        <v>6.232893833393869</v>
+        <v>6.387751068071286</v>
       </c>
       <c r="E15">
-        <v>7.195724463471387</v>
+        <v>7.240155773303851</v>
       </c>
       <c r="F15">
-        <v>19.47614530995401</v>
+        <v>18.88020302389608</v>
       </c>
       <c r="G15">
-        <v>20.80522992967167</v>
+        <v>20.81904365650715</v>
       </c>
       <c r="H15">
-        <v>6.799390055330452</v>
+        <v>6.796630869700182</v>
       </c>
       <c r="I15">
-        <v>2.514727770266233</v>
+        <v>2.577975592323902</v>
       </c>
       <c r="J15">
-        <v>8.738987296572832</v>
+        <v>8.558705625692319</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.726050871587594</v>
+        <v>10.69165658199836</v>
       </c>
       <c r="M15">
-        <v>12.67350550947563</v>
+        <v>8.43650553619478</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.726408844959585</v>
       </c>
       <c r="O15">
-        <v>10.11156018797459</v>
+        <v>12.62791102571015</v>
       </c>
       <c r="P15">
-        <v>12.50627318128945</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.00193028943343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.12920970279992</v>
+      </c>
+      <c r="R15">
+        <v>12.5001667993678</v>
+      </c>
+      <c r="S15">
+        <v>13.54499224587759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.10362328370534</v>
+        <v>13.83979732430758</v>
       </c>
       <c r="C16">
-        <v>8.037661446255301</v>
+        <v>8.213240027274686</v>
       </c>
       <c r="D16">
-        <v>6.145857691093197</v>
+        <v>6.270065861487241</v>
       </c>
       <c r="E16">
-        <v>7.201958810868253</v>
+        <v>7.247688934658764</v>
       </c>
       <c r="F16">
-        <v>19.4451394593147</v>
+        <v>18.96806535571978</v>
       </c>
       <c r="G16">
-        <v>20.77103919873257</v>
+        <v>20.06529610539743</v>
       </c>
       <c r="H16">
-        <v>6.595454200213714</v>
+        <v>6.589982945991113</v>
       </c>
       <c r="I16">
-        <v>2.580126452790257</v>
+        <v>2.521220243812569</v>
       </c>
       <c r="J16">
-        <v>8.782862057879111</v>
+        <v>8.827250627048123</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.720969705459336</v>
+        <v>10.82231448971872</v>
       </c>
       <c r="M16">
-        <v>12.32746319200173</v>
+        <v>8.483016927209901</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.725691995599453</v>
       </c>
       <c r="O16">
-        <v>9.937251943353914</v>
+        <v>12.31430673690583</v>
       </c>
       <c r="P16">
-        <v>12.58302182665241</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.05069059145496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.964704416231854</v>
+      </c>
+      <c r="R16">
+        <v>12.5545905111354</v>
+      </c>
+      <c r="S16">
+        <v>13.67749174660877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.84853998266462</v>
+        <v>13.60251039245657</v>
       </c>
       <c r="C17">
-        <v>7.968060905271397</v>
+        <v>8.145640187036964</v>
       </c>
       <c r="D17">
-        <v>6.311219953700055</v>
+        <v>6.425395395779327</v>
       </c>
       <c r="E17">
-        <v>7.486471632286327</v>
+        <v>7.536292477578919</v>
       </c>
       <c r="F17">
-        <v>19.75738305542254</v>
+        <v>19.3178019006495</v>
       </c>
       <c r="G17">
-        <v>21.11014787543736</v>
+        <v>20.09985778608428</v>
       </c>
       <c r="H17">
-        <v>5.867624714032684</v>
+        <v>5.859894983443866</v>
       </c>
       <c r="I17">
-        <v>2.627277605619081</v>
+        <v>2.561959517320922</v>
       </c>
       <c r="J17">
-        <v>8.866461879688268</v>
+        <v>9.007805989796125</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.736178559666796</v>
+        <v>10.95604410762232</v>
       </c>
       <c r="M17">
-        <v>12.14008017479771</v>
+        <v>8.576679783531524</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.74187439112052</v>
       </c>
       <c r="O17">
-        <v>10.12786962099655</v>
+        <v>12.14160837994539</v>
       </c>
       <c r="P17">
-        <v>12.61748320969776</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.2254469589607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.16022095239616</v>
+      </c>
+      <c r="R17">
+        <v>12.57514377318669</v>
+      </c>
+      <c r="S17">
+        <v>13.87726641959679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.75645482355323</v>
+        <v>13.50317838600769</v>
       </c>
       <c r="C18">
-        <v>7.949119304009137</v>
+        <v>8.150725764706275</v>
       </c>
       <c r="D18">
-        <v>6.713436692376201</v>
+        <v>6.828267085235009</v>
       </c>
       <c r="E18">
-        <v>8.154723900814773</v>
+        <v>8.208737609803549</v>
       </c>
       <c r="F18">
-        <v>20.41371349330765</v>
+        <v>19.967206822245</v>
       </c>
       <c r="G18">
-        <v>21.82847917728064</v>
+        <v>20.66556607026002</v>
       </c>
       <c r="H18">
-        <v>4.631932803278263</v>
+        <v>4.621535993667658</v>
       </c>
       <c r="I18">
-        <v>2.634285549257692</v>
+        <v>2.564835839936168</v>
       </c>
       <c r="J18">
-        <v>8.996967661157578</v>
+        <v>9.172080028130825</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.840177944213084</v>
+        <v>11.12349201450162</v>
       </c>
       <c r="M18">
-        <v>12.07280520102344</v>
+        <v>8.732150412054194</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.844204098317705</v>
       </c>
       <c r="O18">
-        <v>10.65597524314002</v>
+        <v>12.0810575214381</v>
       </c>
       <c r="P18">
-        <v>12.6231345464783</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.53685461037996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.69181893598419</v>
+      </c>
+      <c r="R18">
+        <v>12.56965796073916</v>
+      </c>
+      <c r="S18">
+        <v>14.18159283843546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.77759597020759</v>
+        <v>13.50019685997476</v>
       </c>
       <c r="C19">
-        <v>8.014572345750921</v>
+        <v>8.26292583239038</v>
       </c>
       <c r="D19">
-        <v>7.283664549234047</v>
+        <v>7.40536585463442</v>
       </c>
       <c r="E19">
-        <v>9.204386971460945</v>
+        <v>9.261775465511324</v>
       </c>
       <c r="F19">
-        <v>21.27371856966329</v>
+        <v>20.79356336344295</v>
       </c>
       <c r="G19">
-        <v>22.74715651632683</v>
+        <v>21.50097383562155</v>
       </c>
       <c r="H19">
-        <v>3.177412189629961</v>
+        <v>3.163164623112079</v>
       </c>
       <c r="I19">
-        <v>2.628191912670956</v>
+        <v>2.560824980153719</v>
       </c>
       <c r="J19">
-        <v>9.148204892564552</v>
+        <v>9.32245009037022</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.102301518446303</v>
+        <v>11.29552884571769</v>
       </c>
       <c r="M19">
-        <v>12.10954278891815</v>
+        <v>8.91300785208246</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.102608035092464</v>
       </c>
       <c r="O19">
-        <v>11.4140933806779</v>
+        <v>12.12008358140184</v>
       </c>
       <c r="P19">
-        <v>12.61275021758525</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.91632467870808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.4528822674816</v>
+      </c>
+      <c r="R19">
+        <v>12.54980748471727</v>
+      </c>
+      <c r="S19">
+        <v>14.5348722688702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.16039689663181</v>
+        <v>13.81486306160521</v>
       </c>
       <c r="C20">
-        <v>8.237169370610548</v>
+        <v>8.586500557338168</v>
       </c>
       <c r="D20">
-        <v>8.263897773786105</v>
+        <v>8.409535486023101</v>
       </c>
       <c r="E20">
-        <v>11.1163607185077</v>
+        <v>11.17976557624737</v>
       </c>
       <c r="F20">
-        <v>22.71320032999539</v>
+        <v>22.1243555654817</v>
       </c>
       <c r="G20">
-        <v>24.27610820538386</v>
+        <v>23.13628898233262</v>
       </c>
       <c r="H20">
-        <v>1.677938879710111</v>
+        <v>1.660712335856391</v>
       </c>
       <c r="I20">
-        <v>2.547037402337959</v>
+        <v>2.542859387173621</v>
       </c>
       <c r="J20">
-        <v>9.367421556372239</v>
+        <v>9.433040849575992</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.740362745867172</v>
+        <v>11.48043640546047</v>
       </c>
       <c r="M20">
-        <v>12.43170560512193</v>
+        <v>9.205193515134964</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.731682330542036</v>
       </c>
       <c r="O20">
-        <v>12.75048562727644</v>
+        <v>12.43343033826018</v>
       </c>
       <c r="P20">
-        <v>12.54832945212146</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.51035005095681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.79059286824129</v>
+      </c>
+      <c r="R20">
+        <v>12.47655252433002</v>
+      </c>
+      <c r="S20">
+        <v>15.04751365468734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.012631959983</v>
+        <v>14.55125091700253</v>
       </c>
       <c r="C21">
-        <v>8.569938762547832</v>
+        <v>8.962751345244117</v>
       </c>
       <c r="D21">
-        <v>8.695404730476495</v>
+        <v>8.913505645022129</v>
       </c>
       <c r="E21">
-        <v>11.66184559937276</v>
+        <v>11.74831604711866</v>
       </c>
       <c r="F21">
-        <v>23.25467276077818</v>
+        <v>22.37372890831849</v>
       </c>
       <c r="G21">
-        <v>24.84872644438517</v>
+        <v>25.28406442170395</v>
       </c>
       <c r="H21">
-        <v>1.687390895626449</v>
+        <v>1.687535072850419</v>
       </c>
       <c r="I21">
-        <v>2.62542486691752</v>
+        <v>2.674327449988212</v>
       </c>
       <c r="J21">
-        <v>9.377269498983402</v>
+        <v>8.824977987541786</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.910536592228818</v>
+        <v>11.25676587228131</v>
       </c>
       <c r="M21">
-        <v>13.09463382318451</v>
+        <v>9.250124200666022</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.889457709360339</v>
       </c>
       <c r="O21">
-        <v>13.42406844674489</v>
+        <v>13.03104650086338</v>
       </c>
       <c r="P21">
-        <v>12.3844556466</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.64560292169069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.44297161257835</v>
+      </c>
+      <c r="R21">
+        <v>12.33216466332318</v>
+      </c>
+      <c r="S21">
+        <v>14.96759438484288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55360439963547</v>
+        <v>15.01864529540867</v>
       </c>
       <c r="C22">
-        <v>8.751824122442944</v>
+        <v>9.162050810510108</v>
       </c>
       <c r="D22">
-        <v>8.924329352470185</v>
+        <v>9.191802862462223</v>
       </c>
       <c r="E22">
-        <v>11.91955990811665</v>
+        <v>12.02301287271749</v>
       </c>
       <c r="F22">
-        <v>23.56756342558982</v>
+        <v>22.48427995293983</v>
       </c>
       <c r="G22">
-        <v>25.19706872922847</v>
+        <v>26.79479340383851</v>
       </c>
       <c r="H22">
-        <v>1.826815315726469</v>
+        <v>1.816381284159711</v>
       </c>
       <c r="I22">
-        <v>2.718797841879617</v>
+        <v>2.750762161737689</v>
       </c>
       <c r="J22">
-        <v>9.381475679317388</v>
+        <v>8.459929472541781</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.986639964017208</v>
+        <v>11.11067249236281</v>
       </c>
       <c r="M22">
-        <v>13.50435695604541</v>
+        <v>9.282948863280653</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.957886040249337</v>
       </c>
       <c r="O22">
-        <v>13.79511319223793</v>
+        <v>13.39638277978747</v>
       </c>
       <c r="P22">
-        <v>12.27904998836633</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.7265045620573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.7988485882657</v>
+      </c>
+      <c r="R22">
+        <v>12.24163646213157</v>
+      </c>
+      <c r="S22">
+        <v>14.8965798243596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.2827002795234</v>
+        <v>14.79261046090837</v>
       </c>
       <c r="C23">
-        <v>8.630906229523962</v>
+        <v>9.038378951174403</v>
       </c>
       <c r="D23">
-        <v>8.798382425580357</v>
+        <v>9.032691483824584</v>
       </c>
       <c r="E23">
-        <v>11.78152093256552</v>
+        <v>11.87285985723493</v>
       </c>
       <c r="F23">
-        <v>23.41933144389168</v>
+        <v>22.46954972359616</v>
       </c>
       <c r="G23">
-        <v>25.04413715973518</v>
+        <v>25.82832700477206</v>
       </c>
       <c r="H23">
-        <v>1.753274784972604</v>
+        <v>1.749148330315793</v>
       </c>
       <c r="I23">
-        <v>2.663931860620804</v>
+        <v>2.704152441162951</v>
       </c>
       <c r="J23">
-        <v>9.384718607942419</v>
+        <v>8.707690148474093</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.946959845668819</v>
+        <v>11.20559115023043</v>
       </c>
       <c r="M23">
-        <v>13.286815720858</v>
+        <v>9.288656008245688</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.922831170460205</v>
       </c>
       <c r="O23">
-        <v>13.59693775662275</v>
+        <v>13.20926932313989</v>
       </c>
       <c r="P23">
-        <v>12.33532362773892</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.69710480479006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.61146990111834</v>
+      </c>
+      <c r="R23">
+        <v>12.28846743220139</v>
+      </c>
+      <c r="S23">
+        <v>14.9671914693487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.18054999342337</v>
+        <v>13.83306257940892</v>
       </c>
       <c r="C24">
-        <v>8.202046540977609</v>
+        <v>8.551610841305797</v>
       </c>
       <c r="D24">
-        <v>8.314305471679353</v>
+        <v>8.460182843354891</v>
       </c>
       <c r="E24">
-        <v>11.24643582230944</v>
+        <v>11.30994731997753</v>
       </c>
       <c r="F24">
-        <v>22.83361038229578</v>
+        <v>22.24260381589063</v>
       </c>
       <c r="G24">
-        <v>24.4251832019724</v>
+        <v>23.26741178441491</v>
       </c>
       <c r="H24">
-        <v>1.656262549455451</v>
+        <v>1.638972478600186</v>
       </c>
       <c r="I24">
-        <v>2.526299769004689</v>
+        <v>2.531712768194284</v>
       </c>
       <c r="J24">
-        <v>9.393199359464736</v>
+        <v>9.461965989757907</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.792555870085996</v>
+        <v>11.51909207281091</v>
       </c>
       <c r="M24">
-        <v>12.42891154422255</v>
+        <v>9.24518829419171</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.78354941078412</v>
       </c>
       <c r="O24">
-        <v>12.82295480882533</v>
+        <v>12.43124685926777</v>
       </c>
       <c r="P24">
-        <v>12.55087200968153</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.57388152608013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.86349000396511</v>
+      </c>
+      <c r="R24">
+        <v>12.47683709724863</v>
+      </c>
+      <c r="S24">
+        <v>15.10888455544522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.88076908228575</v>
+        <v>12.62763482684131</v>
       </c>
       <c r="C25">
-        <v>7.718859802607867</v>
+        <v>7.896327576169226</v>
       </c>
       <c r="D25">
-        <v>7.763562136611106</v>
+        <v>7.888861801160818</v>
       </c>
       <c r="E25">
-        <v>10.64076735286457</v>
+        <v>10.70719249663133</v>
       </c>
       <c r="F25">
-        <v>22.21771537830988</v>
+        <v>21.72904887394434</v>
       </c>
       <c r="G25">
-        <v>23.79034772500776</v>
+        <v>22.61697418975231</v>
       </c>
       <c r="H25">
-        <v>1.987577879112038</v>
+        <v>1.955871009763495</v>
       </c>
       <c r="I25">
-        <v>2.759919113550072</v>
+        <v>2.672200716467082</v>
       </c>
       <c r="J25">
-        <v>9.413767698069138</v>
+        <v>9.531304347501964</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.620221358540888</v>
+        <v>11.78252303477785</v>
       </c>
       <c r="M25">
-        <v>11.42992905002395</v>
+        <v>9.142854511937051</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.621140505506963</v>
       </c>
       <c r="O25">
-        <v>11.9358261931803</v>
+        <v>11.44226052899951</v>
       </c>
       <c r="P25">
-        <v>12.78907250507645</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.46455154434598</v>
+        <v>11.97399555520581</v>
+      </c>
+      <c r="R25">
+        <v>12.69333979323739</v>
+      </c>
+      <c r="S25">
+        <v>15.07013462485346</v>
       </c>
     </row>
   </sheetData>
